--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE2DD2D-3EC8-430D-9C5F-CE70686AC0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A0D17-9EDB-43B0-BF64-796DF5861CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="7185" windowWidth="21300" windowHeight="8910" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView xWindow="33525" yWindow="4185" windowWidth="25710" windowHeight="12690" activeTab="7" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
@@ -990,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6:D7"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,9 +1160,6 @@
       <c r="C5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>174</v>
@@ -1195,6 +1192,9 @@
       <c r="C6" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>91</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>123</v>
@@ -1243,7 +1243,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>177</v>
@@ -2490,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3288,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A0D17-9EDB-43B0-BF64-796DF5861CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA5A49-0C85-48D6-9EC2-96AA2962AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33525" yWindow="4185" windowWidth="25710" windowHeight="12690" activeTab="7" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView xWindow="3765" yWindow="2520" windowWidth="25710" windowHeight="12690" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="193">
   <si>
     <t>Notes</t>
   </si>
@@ -604,6 +604,24 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:04:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:05:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:06:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:07:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:08:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:09:14 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -988,11 +1006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,9 +1029,7 @@
     <col min="12" max="12" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" collapsed="1"/>
-    <col min="16" max="29" width="15.7109375" style="1"/>
-    <col min="30" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="15" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1061,8 +1077,12 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>181</v>
       </c>
@@ -1095,11 +1115,18 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>186</v>
       </c>
@@ -1126,11 +1153,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>186</v>
       </c>
@@ -1157,9 +1191,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1189,6 +1232,12 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>184</v>
       </c>
@@ -1224,8 +1273,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>91</v>
@@ -3288,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA5A49-0C85-48D6-9EC2-96AA2962AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2E3B79ED-0D5B-4B27-BC03-A14D6E0D1350}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2520" windowWidth="25710" windowHeight="12690" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView activeTab="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
-    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
-    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
-    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
-    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
-    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
-    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowCreditCardSCF" r:id="rId2" sheetId="12"/>
+    <sheet name="PayNowCreditCardDCF" r:id="rId3" sheetId="13"/>
+    <sheet name="PayNowCCSCF" r:id="rId4" sheetId="5"/>
+    <sheet name="PayNowCCDCF" r:id="rId5" sheetId="6"/>
+    <sheet name="DCFVerbiage" r:id="rId6" sheetId="8"/>
+    <sheet name="OverUnderPay" r:id="rId7" sheetId="9"/>
+    <sheet name="MissingCC" r:id="rId8" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId9" sheetId="3"/>
+    <sheet name="NoModifyAmount" r:id="rId10" sheetId="10"/>
+    <sheet name="NoOverPay" r:id="rId11" sheetId="11"/>
+    <sheet name="SCFVerbiage" r:id="rId12" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId13" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="204">
   <si>
     <t>Notes</t>
   </si>
@@ -622,12 +624,46 @@
   </si>
   <si>
     <t>Sat Oct 05 17:09:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:10:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:12:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:14:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:15:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:16:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:17:16 IST 2024</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:48:34 IST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,22 +718,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -714,10 +750,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -752,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -804,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -915,21 +951,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -946,7 +982,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -998,41 +1034,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1114,7 +1150,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -1152,7 +1188,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1190,7 +1226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -1272,7 +1308,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -1315,8 +1351,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1324,41 +1360,358 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -1444,7 +1797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1478,74 +1831,74 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AX4"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +2050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1781,7 +2134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1876,7 +2229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -2002,7 +2355,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2010,41 +2363,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592A887A-E7FF-45A4-AA15-F82DEC7746C1}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2067,252 +2412,654 @@
         <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>125</v>
+      <c r="J5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC66D8CD-ACD3-4E9A-AD22-471BFACD018F}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2398,7 +3145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2434,7 +3181,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2469,7 +3216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -2504,7 +3251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2540,46 +3287,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AB5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2665,7 +3412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2" s="1" t="s">
@@ -2697,60 +3444,60 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AC5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="28.1796875" collapsed="true"/>
+    <col min="30" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2839,7 +3586,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2881,7 +3628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2922,70 +3669,70 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AX2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="49.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -3169,492 +3916,175 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:B26"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2E3B79ED-0D5B-4B27-BC03-A14D6E0D1350}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{676EBDAF-86A3-4BC1-A302-49CE2A5FE37D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
+    <workbookView activeTab="13" firstSheet="13" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowCreditCardSCF" r:id="rId2" sheetId="12"/>
-    <sheet name="PayNowCreditCardDCF" r:id="rId3" sheetId="13"/>
-    <sheet name="PayNowCCSCF" r:id="rId4" sheetId="5"/>
-    <sheet name="PayNowCCDCF" r:id="rId5" sheetId="6"/>
-    <sheet name="DCFVerbiage" r:id="rId6" sheetId="8"/>
-    <sheet name="OverUnderPay" r:id="rId7" sheetId="9"/>
-    <sheet name="MissingCC" r:id="rId8" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId9" sheetId="3"/>
-    <sheet name="NoModifyAmount" r:id="rId10" sheetId="10"/>
-    <sheet name="NoOverPay" r:id="rId11" sheetId="11"/>
-    <sheet name="SCFVerbiage" r:id="rId12" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId13" sheetId="2"/>
+    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
+    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
+    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
+    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
+    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
+    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
+    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
+    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
+    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
+    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
+    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
+    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
+    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
+    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
+    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
+    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="209">
   <si>
     <t>Notes</t>
   </si>
@@ -626,37 +632,52 @@
     <t>Sat Oct 05 17:09:14 EDT 2024</t>
   </si>
   <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Jan 03 22:06:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 06 14:31:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Dec 17 17:02:38 IST 2024</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
     <t>882</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:10:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:12:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:14:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:15:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:16:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:17:16 IST 2024</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:48:34 IST 2024</t>
+    <t>Tue Jan 07 15:19:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:21:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:24:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:27:17 IST 2025</t>
+  </si>
+  <si>
+    <t>12/31/2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:29:56 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -720,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
@@ -728,6 +749,9 @@
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1045,8 +1069,8 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
+      <selection activeCell="I1" pane="topRight" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,323 +1384,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
@@ -1848,7 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
@@ -2362,307 +2069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592A887A-E7FF-45A4-AA15-F82DEC7746C1}">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC66D8CD-ACD3-4E9A-AD22-471BFACD018F}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2711,31 +2123,33 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>123</v>
+      <c r="H2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>152</v>
@@ -2743,12 +2157,14 @@
       <c r="K2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>174</v>
+      <c r="L2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2756,12 +2172,711 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,12 +3139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3291,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
@@ -3461,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
@@ -3682,7 +3797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -3923,7 +4038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -4087,4 +4202,321 @@
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="210">
   <si>
     <t>Notes</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>Tue Jan 07 15:29:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 07 15:48:01 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2131,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{676EBDAF-86A3-4BC1-A302-49CE2A5FE37D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9FDFF3D0-FFFA-45B6-85FF-3B964B78228A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="13" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
+    <workbookView activeTab="18" firstSheet="16" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="211">
   <si>
     <t>Notes</t>
   </si>
@@ -638,9 +638,6 @@
     <t/>
   </si>
   <si>
-    <t>Fri Jan 03 22:06:40 IST 2025</t>
-  </si>
-  <si>
     <t>Mon Jan 06 14:31:44 IST 2025</t>
   </si>
   <si>
@@ -671,9 +668,6 @@
     <t>Tue Jan 07 15:24:54 IST 2025</t>
   </si>
   <si>
-    <t>Tue Jan 07 15:27:17 IST 2025</t>
-  </si>
-  <si>
     <t>12/31/2025</t>
   </si>
   <si>
@@ -681,6 +675,15 @@
   </si>
   <si>
     <t>Tue Jan 07 15:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:45:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:56:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:57:24 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
-      <selection activeCell="I1" pane="topRight" sqref="I1:N1"/>
+      <selection activeCell="C17" pane="topRight" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2131,7 +2134,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2234,7 +2237,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2282,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2337,7 +2340,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2365,7 +2368,7 @@
         <v>177</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>176</v>
@@ -2435,17 +2438,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>183</v>
@@ -2537,7 +2540,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2547,7 +2550,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2636,7 +2639,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2646,7 +2649,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2735,7 +2738,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2745,7 +2748,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2779,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,7 +2837,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2844,7 +2847,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="211">
   <si>
     <t>Notes</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Tue Jan 07 15:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 31 21:43:10 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2540,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="214">
   <si>
     <t>Notes</t>
   </si>
@@ -684,6 +684,15 @@
   </si>
   <si>
     <t>Fri Jan 24 13:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:18:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:20:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:34:07 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2246,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2540,7 +2549,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9FDFF3D0-FFFA-45B6-85FF-3B964B78228A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131C2DD-03F9-4D8E-BEB8-6E5B4989C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="16" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
-    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
-    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
-    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
-    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
-    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
-    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
-    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
-    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
-    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
-    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
-    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
-    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
-    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
-    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
-    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
+    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
+    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
+    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
+    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
+    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
+    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
+    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
+    <sheet name="NoModifyAmountCC" sheetId="12" r:id="rId12"/>
+    <sheet name="NoModifyBillingAddressCC" sheetId="13" r:id="rId13"/>
+    <sheet name="CCDeferredCC" sheetId="14" r:id="rId14"/>
+    <sheet name="CMCAutopayCC" sheetId="15" r:id="rId15"/>
+    <sheet name="PayNowCreditCardDCF" sheetId="16" r:id="rId16"/>
+    <sheet name="PayNowCreditCardSCF" sheetId="17" r:id="rId17"/>
+    <sheet name="DCFCCVerbiage" sheetId="18" r:id="rId18"/>
+    <sheet name="SCFCCVerbiage" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="208">
   <si>
     <t>Notes</t>
   </si>
@@ -638,9 +638,6 @@
     <t/>
   </si>
   <si>
-    <t>Mon Jan 06 14:31:44 IST 2025</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -659,15 +656,9 @@
     <t>Tue Jan 07 15:19:24 IST 2025</t>
   </si>
   <si>
-    <t>Tue Jan 07 15:21:09 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 07 15:23:05 IST 2025</t>
   </si>
   <si>
-    <t>Tue Jan 07 15:24:54 IST 2025</t>
-  </si>
-  <si>
     <t>12/31/2025</t>
   </si>
   <si>
@@ -677,16 +668,7 @@
     <t>Tue Jan 07 15:48:01 IST 2025</t>
   </si>
   <si>
-    <t>Fri Jan 24 13:45:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:56:35 IST 2025</t>
-  </si>
-  <si>
     <t>Fri Jan 24 13:57:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 18:18:42 IST 2025</t>
   </si>
   <si>
     <t>Wed Feb 05 18:20:14 IST 2025</t>
@@ -699,7 +681,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,25 +735,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,10 +770,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -827,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -879,7 +860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -990,21 +971,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1021,7 +1002,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1073,38 +1054,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
-      <selection activeCell="C17" pane="topRight" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1151,7 +1132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1189,7 +1170,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -1227,7 +1208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="29" r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1390,8 +1371,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1399,8 +1380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
@@ -1408,29 +1389,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -1566,13 +1547,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AY4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
@@ -1580,44 +1561,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="38.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7265625" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -2077,7 +2058,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2085,8 +2066,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
@@ -2094,7 +2075,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2138,12 +2119,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2183,13 +2164,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -2197,7 +2178,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2241,12 +2222,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2286,13 +2267,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -2300,7 +2281,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2344,12 +2325,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2377,7 +2358,7 @@
         <v>177</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>176</v>
@@ -2387,13 +2368,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -2401,7 +2382,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2447,17 +2428,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>183</v>
@@ -2486,13 +2467,112 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2500,7 +2580,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2549,7 +2629,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2585,13 +2665,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2599,7 +2679,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2648,7 +2728,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2658,7 +2738,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2684,120 +2764,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2846,7 +2827,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2856,7 +2837,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2882,13 +2863,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -2896,29 +2877,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3150,13 +3131,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3164,29 +3145,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3417,13 +3398,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3431,29 +3412,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3587,13 +3568,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
@@ -3601,30 +3582,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="28.1796875" collapsed="true"/>
-    <col min="30" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
@@ -3716,7 +3697,7 @@
         <v>143</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3808,13 +3789,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
@@ -3822,44 +3803,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="49.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="49.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7265625" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -4046,7 +4027,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4054,8 +4035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4063,7 +4044,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.453125" collapsed="true"/>
+    <col min="1" max="1" width="56.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4212,7 +4193,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4220,8 +4201,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -4229,27 +4210,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4335,7 +4316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4372,13 +4353,13 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -4386,27 +4367,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4492,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4532,6 +4513,6 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{676EBDAF-86A3-4BC1-A302-49CE2A5FE37D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C3A41D-BDE7-4339-B532-54EAFDB6CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="13" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" firstSheet="8" activeTab="15" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
-    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
-    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
-    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
-    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
-    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
-    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
-    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
-    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
-    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
-    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
-    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
-    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
-    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
-    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
-    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
+    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
+    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
+    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
+    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
+    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
+    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
+    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
+    <sheet name="NoModifyAmountCC" sheetId="12" r:id="rId12"/>
+    <sheet name="NoModifyBillingAddressCC" sheetId="13" r:id="rId13"/>
+    <sheet name="CCDeferredCC" sheetId="14" r:id="rId14"/>
+    <sheet name="CMCAutopayCC" sheetId="15" r:id="rId15"/>
+    <sheet name="PayNowCreditCardDCF" sheetId="16" r:id="rId16"/>
+    <sheet name="PayNowCreditCardSCF" sheetId="17" r:id="rId17"/>
+    <sheet name="DCFCCVerbiage" sheetId="18" r:id="rId18"/>
+    <sheet name="SCFCCVerbiage" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="208">
   <si>
     <t>Notes</t>
   </si>
@@ -638,9 +638,6 @@
     <t/>
   </si>
   <si>
-    <t>Fri Jan 03 22:06:40 IST 2025</t>
-  </si>
-  <si>
     <t>Mon Jan 06 14:31:44 IST 2025</t>
   </si>
   <si>
@@ -666,12 +663,6 @@
   </si>
   <si>
     <t>Tue Jan 07 15:23:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 07 15:24:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 07 15:27:17 IST 2025</t>
   </si>
   <si>
     <t>12/31/2025</t>
@@ -690,7 +681,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,25 +735,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -780,10 +770,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -818,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -870,7 +860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,21 +971,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1012,7 +1002,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1064,41 +1054,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
-      <selection activeCell="I1" pane="topRight" sqref="I1:N1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -1142,7 +1132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1180,7 +1170,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="29" r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1256,7 +1246,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1297,7 +1287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -1338,7 +1328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -1381,8 +1371,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1390,41 +1380,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -1510,7 +1500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -1544,74 +1534,74 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AY4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1847,7 +1837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1942,7 +1932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -2068,7 +2058,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2076,16 +2066,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2129,12 +2119,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2174,21 +2164,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2232,12 +2222,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2277,21 +2267,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2335,12 +2328,12 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2368,7 +2361,7 @@
         <v>177</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>176</v>
@@ -2378,21 +2371,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2436,19 +2429,19 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>183</v>
@@ -2477,21 +2470,123 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2535,12 +2630,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2576,21 +2671,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2634,7 +2729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2649,7 +2744,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2675,120 +2770,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2832,12 +2828,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2847,7 +2843,7 @@
         <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>182</v>
@@ -2873,46 +2869,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2998,7 +2994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3034,7 +3030,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3069,7 +3065,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -3141,46 +3137,46 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3302,7 +3298,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -3372,7 +3368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -3408,46 +3404,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3533,7 +3529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2" s="1" t="s">
@@ -3565,60 +3561,60 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="28.1796875" collapsed="true"/>
-    <col min="30" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3707,7 +3703,7 @@
         <v>143</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3790,70 +3786,70 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="49.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
+    <col min="1" max="1" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -4037,7 +4033,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4045,165 +4041,165 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.453125" collapsed="true"/>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4211,36 +4207,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4326,7 +4322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4363,41 +4359,41 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4483,7 +4479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4523,6 +4519,6 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="215">
   <si>
     <t>Notes</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>Fri Jan 31 21:43:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 19:42:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 20:59:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 21:01:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Mar 03 21:59:41 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2349,10 @@
     </row>
     <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131C2DD-03F9-4D8E-BEB8-6E5B4989C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5131C2DD-03F9-4D8E-BEB8-6E5B4989C323}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
-    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
-    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
-    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
-    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
-    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
-    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
-    <sheet name="NoModifyAmountCC" sheetId="12" r:id="rId12"/>
-    <sheet name="NoModifyBillingAddressCC" sheetId="13" r:id="rId13"/>
-    <sheet name="CCDeferredCC" sheetId="14" r:id="rId14"/>
-    <sheet name="CMCAutopayCC" sheetId="15" r:id="rId15"/>
-    <sheet name="PayNowCreditCardDCF" sheetId="16" r:id="rId16"/>
-    <sheet name="PayNowCreditCardSCF" sheetId="17" r:id="rId17"/>
-    <sheet name="DCFCCVerbiage" sheetId="18" r:id="rId18"/>
-    <sheet name="SCFCCVerbiage" sheetId="19" r:id="rId19"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
+    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
+    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
+    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
+    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
+    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
+    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
+    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
+    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
+    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
+    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
+    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
+    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
+    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
+    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
+    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="226">
   <si>
     <t>Notes</t>
   </si>
@@ -675,12 +675,67 @@
   </si>
   <si>
     <t>Wed Feb 05 18:34:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Mar 03 14:19:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Mar 03 14:20:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Mar 03 17:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:20:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:25:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:33:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:43:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:48:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:52:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:53:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:05:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:48:10 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,25 +790,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -770,10 +825,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -808,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -860,7 +915,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -971,21 +1026,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1002,7 +1057,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1054,38 +1109,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
+      <selection activeCell="M12" pane="topRight" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="43.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1132,12 +1187,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>181</v>
@@ -1170,12 +1225,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>181</v>
@@ -1208,12 +1263,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>181</v>
@@ -1251,7 +1306,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>184</v>
@@ -1292,7 +1347,7 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>184</v>
@@ -1333,7 +1388,7 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>184</v>
@@ -1371,8 +1426,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1380,8 +1435,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
@@ -1389,29 +1444,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -1547,13 +1602,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
@@ -1561,44 +1616,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7265625" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -2058,7 +2113,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2066,8 +2121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
@@ -2075,7 +2130,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2119,12 +2174,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2164,13 +2219,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -2178,7 +2233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2222,12 +2277,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2267,13 +2322,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -2281,7 +2336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2325,12 +2380,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2368,13 +2423,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -2382,7 +2437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2428,10 +2483,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2467,13 +2522,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -2481,7 +2536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2530,7 +2585,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2566,13 +2621,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2580,7 +2635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2629,7 +2684,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2665,13 +2720,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2679,7 +2734,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2728,7 +2783,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2764,13 +2819,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -2778,7 +2833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2827,7 +2882,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2863,13 +2918,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -2877,29 +2932,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3131,13 +3186,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3145,29 +3200,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3398,13 +3453,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3412,29 +3467,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -3568,13 +3623,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
@@ -3582,30 +3637,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="28.1796875" collapsed="true"/>
+    <col min="30" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
@@ -3697,7 +3752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3789,13 +3844,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
@@ -3803,44 +3858,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7265625" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7265625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="49.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.81640625" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7265625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.1796875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -4027,7 +4082,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4035,8 +4090,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4044,7 +4099,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4193,7 +4248,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4201,8 +4256,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -4210,27 +4265,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4316,7 +4371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="29" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4353,13 +4408,13 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -4367,27 +4422,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4513,6 +4568,6 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C3A41D-BDE7-4339-B532-54EAFDB6CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{70C3A41D-BDE7-4339-B532-54EAFDB6CDA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" firstSheet="8" activeTab="15" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView activeTab="15" firstSheet="8" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
-    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
-    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
-    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
-    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
-    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
-    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
-    <sheet name="NoModifyAmountCC" sheetId="12" r:id="rId12"/>
-    <sheet name="NoModifyBillingAddressCC" sheetId="13" r:id="rId13"/>
-    <sheet name="CCDeferredCC" sheetId="14" r:id="rId14"/>
-    <sheet name="CMCAutopayCC" sheetId="15" r:id="rId15"/>
-    <sheet name="PayNowCreditCardDCF" sheetId="16" r:id="rId16"/>
-    <sheet name="PayNowCreditCardSCF" sheetId="17" r:id="rId17"/>
-    <sheet name="DCFCCVerbiage" sheetId="18" r:id="rId18"/>
-    <sheet name="SCFCCVerbiage" sheetId="19" r:id="rId19"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
+    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
+    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
+    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
+    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
+    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
+    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
+    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
+    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
+    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
+    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
+    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
+    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
+    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
+    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
+    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="234">
   <si>
     <t>Notes</t>
   </si>
@@ -675,12 +675,91 @@
   </si>
   <si>
     <t>Fri Jan 31 21:43:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:38:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:43:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:47:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:50:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:53:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:54:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:56:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:57:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:00:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:03:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:42:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:45:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:47:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:48:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:49:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:49:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:52:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:56:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:58:07 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,25 +814,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -770,10 +849,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -808,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -860,7 +939,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -971,21 +1050,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1002,7 +1081,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1054,38 +1133,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:N1"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
+      <selection activeCell="I1" pane="topRight" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="43.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1132,12 +1211,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>181</v>
@@ -1170,12 +1249,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>181</v>
@@ -1208,12 +1287,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>181</v>
@@ -1246,12 +1325,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>184</v>
@@ -1287,12 +1366,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>184</v>
@@ -1328,12 +1407,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>184</v>
@@ -1371,8 +1450,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1380,8 +1459,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
@@ -1389,29 +1468,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -1547,13 +1626,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
@@ -1561,44 +1640,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -2058,7 +2137,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2066,8 +2145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
@@ -2075,7 +2154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2119,12 +2198,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2164,13 +2243,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -2178,7 +2257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2222,12 +2301,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2267,13 +2346,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -2281,10 +2360,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2328,7 +2407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2371,13 +2450,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -2385,7 +2464,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2431,10 +2510,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2470,13 +2549,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2484,10 +2563,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2536,7 +2615,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2572,13 +2651,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2586,7 +2665,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2635,7 +2714,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2671,13 +2750,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2685,7 +2764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2734,7 +2813,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2770,13 +2849,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -2784,7 +2863,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2833,7 +2912,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2869,13 +2948,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -2883,29 +2962,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3137,13 +3216,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3151,29 +3230,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3404,13 +3483,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3418,29 +3497,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3574,13 +3653,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
@@ -3588,30 +3667,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="30" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3703,7 +3782,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3795,13 +3874,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
@@ -3809,44 +3888,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="49.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -4033,7 +4112,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4041,8 +4120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4050,7 +4129,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4278,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4207,8 +4286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -4216,27 +4295,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4322,7 +4401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4359,13 +4438,13 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -4373,27 +4452,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4479,7 +4558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4519,6 +4598,6 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C3A41D-BDE7-4339-B532-54EAFDB6CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{70C3A41D-BDE7-4339-B532-54EAFDB6CDA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" firstSheet="8" activeTab="15" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView activeTab="15" firstSheet="8" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowCCSCF" sheetId="5" r:id="rId2"/>
-    <sheet name="PayNowCCDCF" sheetId="6" r:id="rId3"/>
-    <sheet name="DCFVerbiage" sheetId="8" r:id="rId4"/>
-    <sheet name="OverUnderPay" sheetId="9" r:id="rId5"/>
-    <sheet name="MissingCC" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="NoModifyAmount" sheetId="10" r:id="rId8"/>
-    <sheet name="NoOverPay" sheetId="11" r:id="rId9"/>
-    <sheet name="SCFVerbiage" sheetId="7" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
-    <sheet name="NoModifyAmountCC" sheetId="12" r:id="rId12"/>
-    <sheet name="NoModifyBillingAddressCC" sheetId="13" r:id="rId13"/>
-    <sheet name="CCDeferredCC" sheetId="14" r:id="rId14"/>
-    <sheet name="CMCAutopayCC" sheetId="15" r:id="rId15"/>
-    <sheet name="PayNowCreditCardDCF" sheetId="16" r:id="rId16"/>
-    <sheet name="PayNowCreditCardSCF" sheetId="17" r:id="rId17"/>
-    <sheet name="DCFCCVerbiage" sheetId="18" r:id="rId18"/>
-    <sheet name="SCFCCVerbiage" sheetId="19" r:id="rId19"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowCCSCF" r:id="rId2" sheetId="5"/>
+    <sheet name="PayNowCCDCF" r:id="rId3" sheetId="6"/>
+    <sheet name="DCFVerbiage" r:id="rId4" sheetId="8"/>
+    <sheet name="OverUnderPay" r:id="rId5" sheetId="9"/>
+    <sheet name="MissingCC" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="3"/>
+    <sheet name="NoModifyAmount" r:id="rId8" sheetId="10"/>
+    <sheet name="NoOverPay" r:id="rId9" sheetId="11"/>
+    <sheet name="SCFVerbiage" r:id="rId10" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="2"/>
+    <sheet name="NoModifyAmountCC" r:id="rId12" sheetId="12"/>
+    <sheet name="NoModifyBillingAddressCC" r:id="rId13" sheetId="13"/>
+    <sheet name="CCDeferredCC" r:id="rId14" sheetId="14"/>
+    <sheet name="CMCAutopayCC" r:id="rId15" sheetId="15"/>
+    <sheet name="PayNowCreditCardDCF" r:id="rId16" sheetId="16"/>
+    <sheet name="PayNowCreditCardSCF" r:id="rId17" sheetId="17"/>
+    <sheet name="DCFCCVerbiage" r:id="rId18" sheetId="18"/>
+    <sheet name="SCFCCVerbiage" r:id="rId19" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="283">
   <si>
     <t>Notes</t>
   </si>
@@ -675,12 +675,238 @@
   </si>
   <si>
     <t>Fri Jan 31 21:43:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:35:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:45:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:53:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:53:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:54:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:55:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:56:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 13:57:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 14:00:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 14:03:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 14:05:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 23:24:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 00:37:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 00:38:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 01:00:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 01:02:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 01:04:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 13:48:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 13:52:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 13:56:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 13:57:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 14:01:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 13:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 26 11:49:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 26 13:08:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 26 13:14:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 26 13:30:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 26 13:34:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:27:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:41:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:51:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:56:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:57:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:58:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:59:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:04:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 22:54:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:06:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:09:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:14:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:17:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:18:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:19:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:19:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:20:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:21:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:24:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:27:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:30:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:45:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 01 17:32:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 01:14:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 09:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 09:11:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:15:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:22:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:26:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:30:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:33:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:34:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:35:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:37:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:43:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:46:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:48:44 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,25 +961,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -770,10 +996,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -808,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -860,7 +1086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -971,21 +1197,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1002,7 +1228,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1054,38 +1280,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:N1"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="topRight" state="frozen" topLeftCell="K1" xSplit="3"/>
+      <selection activeCell="I1" pane="topRight" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="43.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1132,12 +1358,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>181</v>
@@ -1170,12 +1396,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>181</v>
@@ -1208,12 +1434,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>181</v>
@@ -1246,12 +1472,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>184</v>
@@ -1287,12 +1513,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>184</v>
@@ -1328,12 +1554,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>184</v>
@@ -1371,8 +1597,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1380,8 +1606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0998B4B-1379-4C62-AAAC-69FB8C23F4B6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
@@ -1389,29 +1615,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -1547,13 +1773,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q42" sqref="Q42"/>
@@ -1561,44 +1787,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -2058,7 +2284,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2066,8 +2292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9DE92-B397-44B0-AEC9-F8D25811CB54}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
@@ -2075,7 +2301,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2119,12 +2345,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2164,13 +2390,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A0641-6BD7-468B-84F0-EE792C70A080}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -2178,7 +2404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2222,12 +2448,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2267,13 +2493,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D73A527-72BD-4591-A2D4-2CEF61283D2F}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -2281,10 +2507,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2328,12 +2554,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2371,13 +2597,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF51F7AD-B3C1-42AF-94A4-9027DD404D74}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -2385,7 +2611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2434,7 +2660,7 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2470,13 +2696,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE4061-05C7-45C5-8300-61EB089304F4}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2484,10 +2710,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2536,7 +2762,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2572,13 +2798,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0244-D738-49E7-A19C-75065FE186E2}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2586,7 +2812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2635,7 +2861,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2671,13 +2897,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF721F-C1CF-4DC8-8195-832F8368F224}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:N1"/>
@@ -2685,7 +2911,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2734,7 +2960,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2770,13 +2996,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4992758E-A1F9-4281-AE93-21063312FF32}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -2784,7 +3010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -2833,7 +3059,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2869,13 +3095,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE14908-B016-4D5E-AEA7-D54DB9070BC6}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -2883,29 +3109,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3137,13 +3363,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FCC47-1993-44A8-9BE0-581A41644C90}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3151,29 +3377,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3404,13 +3630,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550F98D-701F-463B-8524-B8E5F73F2D8E}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -3418,29 +3644,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3574,13 +3800,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30327A80-5D3D-4DEF-87CB-A4BDC28D6002}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
@@ -3588,30 +3814,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="13" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="30" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3703,7 +3929,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3795,13 +4021,13 @@
       <c r="B5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
@@ -3809,44 +4035,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="49.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -4033,7 +4259,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4041,8 +4267,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4050,7 +4276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4425,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -4207,8 +4433,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5F0A8-DFAA-493B-B07B-97C59CBB0D66}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -4216,27 +4442,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4322,7 +4548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4359,13 +4585,13 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133992E5-F2D4-42EB-B2FB-D66167060930}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -4373,27 +4599,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4479,7 +4705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4519,6 +4745,6 @@
       <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="262">
   <si>
     <t>Notes</t>
   </si>
@@ -753,6 +753,90 @@
   </si>
   <si>
     <t>Wed Jun 25 00:58:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:16:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:01:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:11:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:17:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:22:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:26:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:28:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:33:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:01:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:02:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:04:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:05:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:11:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:14:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:16:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:18:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:47:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:48:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 19:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 19:58:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 20:07:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 21:46:39 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1300,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>181</v>
@@ -1254,7 +1338,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>181</v>
@@ -1292,7 +1376,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>181</v>
@@ -1330,7 +1414,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>184</v>
@@ -1371,7 +1455,7 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>184</v>
@@ -1412,7 +1496,7 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>184</v>
@@ -2203,7 +2287,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2306,7 +2390,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>184</v>
@@ -2412,7 +2496,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2513,7 +2597,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2612,10 +2696,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2711,10 +2795,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2813,7 +2897,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -2912,7 +2996,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="263">
   <si>
     <t>Notes</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>Tue Nov 18 21:46:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 22:02:48 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2702,7 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
